--- a/crawl_stats.xlsx
+++ b/crawl_stats.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://radiateur-electrique.expert-francais.shop/</v>
+        <v>sc-domain:radiateur-electrique.expert-francais.shop</v>
       </c>
       <c r="B2" t="str">
         <v>radiateur duronic</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://radiateur-electrique.expert-francais.shop/</v>
+        <v>sc-domain:radiateur-electrique.expert-francais.shop</v>
       </c>
       <c r="B3" t="str">
         <v>radiateur electrique francais</v>
@@ -467,7 +467,7 @@
         <v>https://genouillere-magnetique.expert-francais.shop/</v>
       </c>
       <c r="B4" t="str">
-        <v>genouillère aimantée</v>
+        <v>genouillere magnetique</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         <v>https://genouillere-magnetique.expert-francais.shop/</v>
       </c>
       <c r="B5" t="str">
-        <v>genouillère magnétique</v>
+        <v>genouillère aimantée</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.166666666666664</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="6">
@@ -507,27 +507,27 @@
         <v>https://genouillere-magnetique.expert-francais.shop/</v>
       </c>
       <c r="B6" t="str">
-        <v>genouillères magnétiques</v>
+        <v>genouillère magnétique</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.5</v>
+        <v>38.166666666666664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>sc-domain:radiateur-electrique.expert-francais.shop</v>
+        <v>https://genouillere-magnetique.expert-francais.shop/</v>
       </c>
       <c r="B7" t="str">
-        <v>radiateur duronic</v>
+        <v>genouillères magnétiques</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -539,32 +539,52 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>43.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>sc-domain:radiateur-electrique.expert-francais.shop</v>
+        <v>https://radiateur-electrique.expert-francais.shop/</v>
       </c>
       <c r="B8" t="str">
+        <v>radiateur duronic</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://radiateur-electrique.expert-francais.shop/</v>
+      </c>
+      <c r="B9" t="str">
         <v>radiateur electrique francais</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>